--- a/outputFile/ariel3.xlsx
+++ b/outputFile/ariel3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ariel_only</t>
+          <t>ariel_v3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ariel_a3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ariel_j3</t>
         </is>
       </c>
     </row>
@@ -446,7 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.48979591836734687, 20], [0.5, 10], [0.4666666666666667, 6]]</t>
+          <t>[0.5, 13]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.4761904761904762, 15]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.65, 10]</t>
         </is>
       </c>
     </row>
@@ -456,7 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.5161290322580646, 6], [0.3333333333333333, 3], [0.1, 2]]</t>
+          <t>[0.3478260869565218, 2]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[0.3478260869565218, 2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.4827586206896552, 5]</t>
         </is>
       </c>
     </row>
@@ -466,7 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.3478260869565218, 2], [0.1, 2], [0, 0]]</t>
+          <t>[0.2, 1]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.3478260869565218, 2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
         </is>
       </c>
     </row>
